--- a/Arduino Code/CAN Message.xlsx
+++ b/Arduino Code/CAN Message.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pressure" sheetId="1" r:id="rId1"/>
+    <sheet name="Temperature" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>CAN ID</t>
   </si>
@@ -38,12 +39,6 @@
     <t>Counter</t>
   </si>
   <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 - 8</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -87,16 +82,112 @@
   </si>
   <si>
     <t>KPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byte </t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>byte 1</t>
+  </si>
+  <si>
+    <t>byte 2</t>
+  </si>
+  <si>
+    <t>byte 3</t>
+  </si>
+  <si>
+    <t>byte 4</t>
+  </si>
+  <si>
+    <t>MSG 1</t>
+  </si>
+  <si>
+    <t>Pressure 1</t>
+  </si>
+  <si>
+    <t>Pressure 2</t>
+  </si>
+  <si>
+    <t>Pressure 3</t>
+  </si>
+  <si>
+    <t>byte 5</t>
+  </si>
+  <si>
+    <t>byte 6</t>
+  </si>
+  <si>
+    <t>byte 7</t>
+  </si>
+  <si>
+    <t>byte 8</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>19 bit</t>
+  </si>
+  <si>
+    <t>19bit</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>10:59:25.951 -&gt; 97880.11</t>
+  </si>
+  <si>
+    <t>10:59:25.951 -&gt; 6264320</t>
+  </si>
+  <si>
+    <t>10:59:25.951 -&gt; 195760</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int&gt;&gt;5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +202,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4E5B61"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -135,15 +232,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -156,7 +347,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,601 +681,2403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:Z23"/>
+  <dimension ref="A3:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="F5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <f>F8+18</f>
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1">
+        <f>G8+1</f>
+        <v>26</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9+18</f>
+        <v>44</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5">
+        <f>G9+1</f>
+        <v>45</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10+18</f>
+        <v>63</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f>C9-C10</f>
         <v>57</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E12" s="4" t="s">
-        <v>6</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <f>C11/4</f>
         <v>14.25</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f>C11/3</f>
         <v>19</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f>C11/2</f>
         <v>28.5</v>
       </c>
+      <c r="T13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="T14" s="2">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
         <v>0.5</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="N16" s="1">
+        <v>13</v>
+      </c>
+      <c r="O16" s="1">
+        <v>12</v>
+      </c>
+      <c r="P16" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>10</v>
+      </c>
+      <c r="R16" s="1">
+        <v>9</v>
+      </c>
+      <c r="S16" s="1">
+        <v>8</v>
+      </c>
+      <c r="T16" s="1">
+        <v>7</v>
+      </c>
+      <c r="U16" s="1">
+        <v>6</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5</v>
+      </c>
+      <c r="W16" s="1">
+        <v>4</v>
+      </c>
+      <c r="X16" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2">
-        <v>21</v>
-      </c>
-      <c r="G16" s="2">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2">
-        <v>19</v>
-      </c>
-      <c r="I16" s="2">
-        <v>18</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I17" s="4">
         <v>17</v>
       </c>
-      <c r="K16" s="2">
+      <c r="J17" s="4">
         <v>16</v>
       </c>
-      <c r="L16" s="2">
+      <c r="K17" s="4">
         <v>15</v>
       </c>
-      <c r="M16" s="2">
+      <c r="L17" s="4">
         <v>14</v>
       </c>
-      <c r="N16" s="2">
+      <c r="M17" s="4">
         <v>13</v>
       </c>
-      <c r="O16" s="2">
+      <c r="N17" s="4">
         <v>12</v>
       </c>
-      <c r="P16" s="2">
+      <c r="O17" s="4">
         <v>11</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="P17" s="4">
         <v>10</v>
       </c>
-      <c r="R16" s="2">
+      <c r="Q17" s="4">
         <v>9</v>
       </c>
-      <c r="S16" s="2">
+      <c r="R17" s="4">
         <v>8</v>
       </c>
-      <c r="T16" s="2">
+      <c r="S17" s="4">
         <v>7</v>
       </c>
-      <c r="U16" s="2">
+      <c r="T17" s="4">
         <v>6</v>
       </c>
-      <c r="V16" s="2">
+      <c r="U17" s="4">
         <v>5</v>
       </c>
-      <c r="W16" s="2">
+      <c r="V17" s="4">
         <v>4</v>
       </c>
-      <c r="X16" s="2">
+      <c r="W17" s="4">
         <v>3</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="X17" s="4">
         <v>2</v>
       </c>
-      <c r="Z16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="Y17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5">
-        <v>22</v>
-      </c>
-      <c r="E17" s="5">
-        <v>21</v>
-      </c>
-      <c r="F17" s="5">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5">
-        <v>19</v>
-      </c>
-      <c r="H17" s="5">
-        <v>18</v>
-      </c>
-      <c r="I17" s="5">
-        <v>17</v>
-      </c>
-      <c r="J17" s="5">
-        <v>16</v>
-      </c>
-      <c r="K17" s="5">
-        <v>15</v>
-      </c>
-      <c r="L17" s="5">
-        <v>14</v>
-      </c>
-      <c r="M17" s="5">
-        <v>13</v>
-      </c>
-      <c r="N17" s="5">
-        <v>12</v>
-      </c>
-      <c r="O17" s="5">
-        <v>11</v>
-      </c>
-      <c r="P17" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>9</v>
-      </c>
-      <c r="R17" s="5">
-        <v>8</v>
-      </c>
-      <c r="S17" s="5">
-        <v>7</v>
-      </c>
-      <c r="T17" s="5">
-        <v>6</v>
-      </c>
-      <c r="U17" s="5">
-        <v>5</v>
-      </c>
-      <c r="V17" s="5">
-        <v>4</v>
-      </c>
-      <c r="W17" s="5">
-        <v>3</v>
-      </c>
-      <c r="X17" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f>2^C17</f>
         <v>8388608</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" ref="D18:Z18" si="0">2^D17</f>
         <v>4194304</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>2097152</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>524288</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
         <v>262144</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="0"/>
         <v>131072</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>65536</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>32768</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f t="shared" si="0"/>
         <v>16384</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f t="shared" si="0"/>
         <v>8192</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z18" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="Z18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
         <f>C18*C15</f>
-        <v>8388608</v>
-      </c>
-      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" ref="D19:Z19" si="1">D18*D15</f>
         <v>4194304</v>
       </c>
-      <c r="E19" s="5">
-        <f t="shared" si="1"/>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <f>SUM(C19:Z19)</f>
+        <v>6264327</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="22">
+        <f>C20/2^6</f>
+        <v>97880.109375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <f>C21/1000</f>
+        <v>97.880109375000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C23" s="19">
+        <f>C21*64</f>
+        <v>6264327</v>
+      </c>
+      <c r="D23" s="1">
+        <f>C23/2^5</f>
+        <v>195760.21875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D27" s="18">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D28" s="18"/>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="17"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="9">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9">
+        <v>6</v>
+      </c>
+      <c r="F32" s="9">
+        <v>5</v>
+      </c>
+      <c r="G32" s="9">
+        <v>4</v>
+      </c>
+      <c r="H32" s="9">
+        <v>3</v>
+      </c>
+      <c r="I32" s="9">
+        <v>2</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>7</v>
+      </c>
+      <c r="M32" s="9">
+        <v>6</v>
+      </c>
+      <c r="N32" s="9">
+        <v>5</v>
+      </c>
+      <c r="O32" s="9">
+        <v>4</v>
+      </c>
+      <c r="P32" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>2</v>
+      </c>
+      <c r="R32" s="9">
+        <v>1</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>7</v>
+      </c>
+      <c r="U32" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="9">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>4</v>
+      </c>
+      <c r="E34" s="9">
+        <v>3</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>7</v>
+      </c>
+      <c r="J34" s="9">
+        <v>6</v>
+      </c>
+      <c r="K34" s="9">
+        <v>5</v>
+      </c>
+      <c r="L34" s="9">
+        <v>4</v>
+      </c>
+      <c r="M34" s="9">
+        <v>3</v>
+      </c>
+      <c r="N34" s="9">
+        <v>2</v>
+      </c>
+      <c r="O34" s="9">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>7</v>
+      </c>
+      <c r="R34" s="9">
+        <v>6</v>
+      </c>
+      <c r="S34" s="9">
+        <v>5</v>
+      </c>
+      <c r="T34" s="9">
+        <v>4</v>
+      </c>
+      <c r="U34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>7</v>
+      </c>
+      <c r="G36" s="9">
+        <v>6</v>
+      </c>
+      <c r="H36" s="9">
+        <v>5</v>
+      </c>
+      <c r="I36" s="9">
+        <v>4</v>
+      </c>
+      <c r="J36" s="9">
+        <v>3</v>
+      </c>
+      <c r="K36" s="9">
+        <v>2</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>7</v>
+      </c>
+      <c r="O36" s="9">
+        <v>6</v>
+      </c>
+      <c r="P36" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>4</v>
+      </c>
+      <c r="R36" s="9">
+        <v>3</v>
+      </c>
+      <c r="S36" s="9">
+        <v>2</v>
+      </c>
+      <c r="T36" s="9">
+        <v>1</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R43" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="L31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F35:M35"/>
+    <mergeCell ref="N35:U35"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:P33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="C35:E35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Z49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="F5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8+18</f>
+        <v>25</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>64</v>
+      </c>
+      <c r="F9" s="5">
+        <f>G8+1</f>
+        <v>26</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9+18</f>
+        <v>44</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5">
+        <f>G9+1</f>
+        <v>45</v>
+      </c>
+      <c r="G10" s="5">
+        <f>F10+18</f>
+        <v>63</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <f>C9-C10</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <f>C11/4</f>
+        <v>14.25</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C11/3</f>
+        <v>19</v>
+      </c>
+      <c r="D13" s="5">
+        <f>C11/2</f>
+        <v>28.5</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>1</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5">
+        <v>1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5">
+        <v>22</v>
+      </c>
+      <c r="F16" s="5">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5">
+        <v>20</v>
+      </c>
+      <c r="H16" s="5">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5">
+        <v>18</v>
+      </c>
+      <c r="J16" s="5">
+        <v>17</v>
+      </c>
+      <c r="K16" s="5">
+        <v>16</v>
+      </c>
+      <c r="L16" s="5">
+        <v>15</v>
+      </c>
+      <c r="M16" s="5">
+        <v>14</v>
+      </c>
+      <c r="N16" s="5">
+        <v>13</v>
+      </c>
+      <c r="O16" s="5">
+        <v>12</v>
+      </c>
+      <c r="P16" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>10</v>
+      </c>
+      <c r="R16" s="5">
+        <v>9</v>
+      </c>
+      <c r="S16" s="5">
+        <v>8</v>
+      </c>
+      <c r="T16" s="5">
+        <v>7</v>
+      </c>
+      <c r="U16" s="5">
+        <v>6</v>
+      </c>
+      <c r="V16" s="5">
+        <v>5</v>
+      </c>
+      <c r="W16" s="5">
+        <v>4</v>
+      </c>
+      <c r="X16" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4">
+        <v>17</v>
+      </c>
+      <c r="J17" s="4">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4">
+        <v>15</v>
+      </c>
+      <c r="L17" s="4">
+        <v>14</v>
+      </c>
+      <c r="M17" s="4">
+        <v>13</v>
+      </c>
+      <c r="N17" s="4">
+        <v>12</v>
+      </c>
+      <c r="O17" s="4">
+        <v>11</v>
+      </c>
+      <c r="P17" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>9</v>
+      </c>
+      <c r="R17" s="4">
+        <v>8</v>
+      </c>
+      <c r="S17" s="4">
+        <v>7</v>
+      </c>
+      <c r="T17" s="4">
+        <v>6</v>
+      </c>
+      <c r="U17" s="4">
+        <v>5</v>
+      </c>
+      <c r="V17" s="4">
+        <v>4</v>
+      </c>
+      <c r="W17" s="4">
+        <v>3</v>
+      </c>
+      <c r="X17" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <f>2^C17</f>
+        <v>8388608</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:Z18" si="0">2^D17</f>
+        <v>4194304</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
         <v>2097152</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="1"/>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="1"/>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
         <v>524288</v>
       </c>
-      <c r="H19" s="5">
-        <f t="shared" si="1"/>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="1"/>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
         <v>131072</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" si="1"/>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="1"/>
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
-      <c r="L19" s="5">
-        <f t="shared" si="1"/>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
         <v>16384</v>
       </c>
-      <c r="M19" s="5">
-        <f t="shared" si="1"/>
+      <c r="M18" s="4">
+        <f t="shared" si="0"/>
         <v>8192</v>
       </c>
-      <c r="N19" s="5">
-        <f t="shared" si="1"/>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="O19" s="5">
-        <f t="shared" si="1"/>
+      <c r="O18" s="4">
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="P19" s="5">
-        <f t="shared" si="1"/>
+      <c r="P18" s="4">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="Q19" s="5">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="4">
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="R19" s="5">
-        <f t="shared" si="1"/>
+      <c r="R18" s="4">
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="S19" s="5">
-        <f t="shared" si="1"/>
+      <c r="S18" s="4">
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="T19" s="5">
-        <f t="shared" si="1"/>
+      <c r="T18" s="4">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="U19" s="5">
-        <f t="shared" si="1"/>
+      <c r="U18" s="4">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="V19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="V18" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
+        <f>C18*C15</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:Z19" si="1">D18*D15</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
         <f>SUM(C19:Z19)</f>
-        <v>16777184</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-    </row>
-    <row r="21" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+        <v>2097127</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="22">
+        <f>C20/2^16</f>
+        <v>31.999618530273438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <f>C21/1000</f>
+        <v>3.1999618530273437E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C23" s="19">
+        <f>C21*2^16</f>
+        <v>2097127</v>
+      </c>
+      <c r="D23" s="5">
+        <f>C23/2^5</f>
+        <v>65535.21875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="6">
-        <f>C20/2^6</f>
-        <v>262143.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2">
-        <f>C21/1000</f>
-        <v>262.14350000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="2">
-        <f>C21*2^6</f>
-        <v>16777184</v>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D27" s="18">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D28" s="18"/>
+      <c r="E28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="17"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="9">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9">
+        <v>6</v>
+      </c>
+      <c r="F32" s="9">
+        <v>5</v>
+      </c>
+      <c r="G32" s="9">
+        <v>4</v>
+      </c>
+      <c r="H32" s="9">
+        <v>3</v>
+      </c>
+      <c r="I32" s="9">
+        <v>2</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>7</v>
+      </c>
+      <c r="M32" s="9">
+        <v>6</v>
+      </c>
+      <c r="N32" s="9">
+        <v>5</v>
+      </c>
+      <c r="O32" s="9">
+        <v>4</v>
+      </c>
+      <c r="P32" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>2</v>
+      </c>
+      <c r="R32" s="9">
+        <v>1</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>7</v>
+      </c>
+      <c r="U32" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="9">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9">
+        <v>4</v>
+      </c>
+      <c r="E34" s="9">
+        <v>3</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>7</v>
+      </c>
+      <c r="J34" s="9">
+        <v>6</v>
+      </c>
+      <c r="K34" s="9">
+        <v>5</v>
+      </c>
+      <c r="L34" s="9">
+        <v>4</v>
+      </c>
+      <c r="M34" s="9">
+        <v>3</v>
+      </c>
+      <c r="N34" s="9">
+        <v>2</v>
+      </c>
+      <c r="O34" s="9">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>7</v>
+      </c>
+      <c r="R34" s="9">
+        <v>6</v>
+      </c>
+      <c r="S34" s="9">
+        <v>5</v>
+      </c>
+      <c r="T34" s="9">
+        <v>4</v>
+      </c>
+      <c r="U34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>7</v>
+      </c>
+      <c r="G36" s="9">
+        <v>6</v>
+      </c>
+      <c r="H36" s="9">
+        <v>5</v>
+      </c>
+      <c r="I36" s="9">
+        <v>4</v>
+      </c>
+      <c r="J36" s="9">
+        <v>3</v>
+      </c>
+      <c r="K36" s="9">
+        <v>2</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>7</v>
+      </c>
+      <c r="O36" s="9">
+        <v>6</v>
+      </c>
+      <c r="P36" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>4</v>
+      </c>
+      <c r="R36" s="9">
+        <v>3</v>
+      </c>
+      <c r="S36" s="9">
+        <v>2</v>
+      </c>
+      <c r="T36" s="9">
+        <v>1</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G42" s="5">
+        <v>8</v>
+      </c>
+      <c r="H42" s="5">
+        <v>4</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R43" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E7:F7"/>
+  <mergeCells count="16">
+    <mergeCell ref="N35:U35"/>
+    <mergeCell ref="L31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:M35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Arduino Code/CAN Message.xlsx
+++ b/Arduino Code/CAN Message.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Pressure" sheetId="1" r:id="rId1"/>
     <sheet name="Temperature" sheetId="2" r:id="rId2"/>
+    <sheet name="Design Documentation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
   <si>
     <t>CAN ID</t>
   </si>
@@ -181,12 +182,48 @@
   </si>
   <si>
     <t>int&gt;&gt;5</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>Input Value</t>
+  </si>
+  <si>
+    <t>Bit Weight (Pa)</t>
+  </si>
+  <si>
+    <t>Bit Weight (C)</t>
+  </si>
+  <si>
+    <t>sensor bits per message</t>
+  </si>
+  <si>
+    <t># of sensors per message</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>compound ID</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>4 bit</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +247,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +260,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -329,11 +372,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,40 +480,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,15 +877,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Z49"/>
+  <dimension ref="A2:Z49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
@@ -699,134 +895,181 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F5" s="20" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15">
+        <v>64</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="31">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="2" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35">
+        <f>B3-B4</f>
+        <v>57</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="36" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F7" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="G7" s="3">
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="48">
+        <v>4</v>
+      </c>
+      <c r="G7" s="49">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="34" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F8" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="10">
+        <f>B6/4</f>
+        <v>14.25</v>
+      </c>
+      <c r="C8" s="9">
+        <f>B6/3</f>
+        <v>19</v>
+      </c>
+      <c r="D8" s="17">
+        <f>B6/2</f>
+        <v>28.5</v>
+      </c>
+      <c r="F8" s="18">
         <v>7</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="35">
         <f>F8+18</f>
         <v>25</v>
       </c>
+      <c r="H8" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>64</v>
-      </c>
-      <c r="F9" s="1">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F9" s="48">
         <f>G8+1</f>
         <v>26</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="47">
         <f>F9+18</f>
         <v>44</v>
       </c>
+      <c r="H9" s="34" t="s">
+        <v>30</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F10" s="19">
         <f>G9+1</f>
         <v>45</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="10">
         <f>F10+18</f>
         <v>63</v>
       </c>
+      <c r="H10" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <f>C9-C10</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <f>C11/4</f>
-        <v>14.25</v>
-      </c>
-      <c r="C13" s="1">
-        <f>C11/3</f>
-        <v>19</v>
-      </c>
-      <c r="D13" s="1">
-        <f>C11/2</f>
-        <v>28.5</v>
-      </c>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="T13" s="1" t="s">
         <v>17</v>
       </c>
@@ -837,7 +1080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -851,7 +1094,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -928,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1563,7 @@
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="13">
         <f>C20/2^6</f>
         <v>97880.109375</v>
       </c>
@@ -1335,7 +1578,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="19">
+      <c r="C23" s="11">
         <f>C21*64</f>
         <v>6264327</v>
       </c>
@@ -1384,7 +1627,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D27" s="18">
+      <c r="D27" s="32">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1398,7 +1641,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D28" s="18"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,43 +1663,43 @@
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16" t="s">
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="17"/>
+      <c r="U31" s="31"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="9">
         <v>0</v>
       </c>
@@ -1516,39 +1759,39 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16" t="s">
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="17"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="31"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="9">
         <v>5</v>
       </c>
@@ -1608,39 +1851,39 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16" t="s">
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="17"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="31"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="9">
         <v>2</v>
       </c>
@@ -1725,7 +1968,7 @@
       <c r="Q41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="21" t="s">
+      <c r="R41" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1745,7 +1988,7 @@
       <c r="Q42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="21" t="s">
+      <c r="R42" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1753,7 +1996,7 @@
       <c r="Q43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R43" s="21" t="s">
+      <c r="R43" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1860,13 +2103,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G3:H3"/>
+  <mergeCells count="20">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D31:K31"/>
     <mergeCell ref="L31:S31"/>
     <mergeCell ref="T31:U31"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="N35:U35"/>
     <mergeCell ref="Q33:U33"/>
@@ -1887,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,10 +2151,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
@@ -1918,10 +2165,10 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2042,9 +2289,6 @@
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
       <c r="T14" s="5">
         <v>1</v>
       </c>
@@ -2524,7 +2768,7 @@
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="13">
         <f>C20/2^16</f>
         <v>31.999618530273438</v>
       </c>
@@ -2536,7 +2780,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="19">
+      <c r="C23" s="11">
         <f>C21*2^16</f>
         <v>2097127</v>
       </c>
@@ -2585,7 +2829,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D27" s="18">
+      <c r="D27" s="32">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -2599,7 +2843,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D28" s="18"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="5" t="s">
         <v>23</v>
       </c>
@@ -2621,43 +2865,43 @@
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16" t="s">
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="17"/>
+      <c r="U31" s="31"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="9">
         <v>0</v>
       </c>
@@ -2717,39 +2961,39 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16" t="s">
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="17"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="31"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="9">
         <v>5</v>
       </c>
@@ -2809,39 +3053,39 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16" t="s">
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="17"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="31"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="9">
         <v>2</v>
       </c>
@@ -2926,7 +3170,7 @@
       <c r="Q41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="21" t="s">
+      <c r="R41" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2946,7 +3190,7 @@
       <c r="Q42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="21" t="s">
+      <c r="R42" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2954,7 +3198,7 @@
       <c r="Q43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R43" s="21" t="s">
+      <c r="R43" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3082,4 +3326,1143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D8:AB38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="20"/>
+    <col min="4" max="4" width="14.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="5" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="8.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="20">
+        <v>128</v>
+      </c>
+      <c r="F8" s="20">
+        <v>64</v>
+      </c>
+      <c r="G8" s="20">
+        <v>32</v>
+      </c>
+      <c r="H8" s="20">
+        <v>16</v>
+      </c>
+      <c r="I8" s="20">
+        <v>8</v>
+      </c>
+      <c r="J8" s="20">
+        <v>4</v>
+      </c>
+      <c r="K8" s="20">
+        <v>2</v>
+      </c>
+      <c r="L8" s="20">
+        <v>1</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="20">
+        <f>N8/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="P8" s="20">
+        <f>O8/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q8" s="20">
+        <f>P8/2</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="R8" s="20">
+        <v>0.125</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" ref="S8:Y8" si="0">R8/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T8" s="22">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="U8" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="V8" s="22">
+        <f t="shared" si="0"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="W8" s="22">
+        <f t="shared" si="0"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="X8" s="20">
+        <f t="shared" si="0"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Y8" s="20">
+        <f t="shared" si="0"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="AA8" s="20">
+        <f>Z8/2</f>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="AB8" s="20">
+        <f>AA8/2</f>
+        <v>4.8828125E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>0</v>
+      </c>
+      <c r="T9" s="20">
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <v>0</v>
+      </c>
+      <c r="V9" s="20">
+        <v>0</v>
+      </c>
+      <c r="W9" s="20">
+        <v>0</v>
+      </c>
+      <c r="X9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="20">
+        <v>24</v>
+      </c>
+      <c r="F10" s="20">
+        <v>23</v>
+      </c>
+      <c r="G10" s="20">
+        <v>22</v>
+      </c>
+      <c r="H10" s="20">
+        <v>21</v>
+      </c>
+      <c r="I10" s="20">
+        <v>20</v>
+      </c>
+      <c r="J10" s="20">
+        <v>19</v>
+      </c>
+      <c r="K10" s="20">
+        <v>18</v>
+      </c>
+      <c r="L10" s="20">
+        <v>17</v>
+      </c>
+      <c r="M10" s="20">
+        <v>16</v>
+      </c>
+      <c r="N10" s="20">
+        <v>15</v>
+      </c>
+      <c r="O10" s="20">
+        <v>14</v>
+      </c>
+      <c r="P10" s="20">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>12</v>
+      </c>
+      <c r="R10" s="20">
+        <v>11</v>
+      </c>
+      <c r="S10" s="20">
+        <v>10</v>
+      </c>
+      <c r="T10" s="20">
+        <v>9</v>
+      </c>
+      <c r="U10" s="20">
+        <v>8</v>
+      </c>
+      <c r="V10" s="20">
+        <v>7</v>
+      </c>
+      <c r="W10" s="20">
+        <v>6</v>
+      </c>
+      <c r="X10" s="20">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="24">
+        <v>23</v>
+      </c>
+      <c r="F11" s="24">
+        <v>22</v>
+      </c>
+      <c r="G11" s="24">
+        <v>21</v>
+      </c>
+      <c r="H11" s="24">
+        <v>20</v>
+      </c>
+      <c r="I11" s="24">
+        <v>19</v>
+      </c>
+      <c r="J11" s="24">
+        <v>18</v>
+      </c>
+      <c r="K11" s="24">
+        <v>17</v>
+      </c>
+      <c r="L11" s="24">
+        <v>16</v>
+      </c>
+      <c r="M11" s="24">
+        <v>15</v>
+      </c>
+      <c r="N11" s="24">
+        <v>14</v>
+      </c>
+      <c r="O11" s="24">
+        <v>13</v>
+      </c>
+      <c r="P11" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>11</v>
+      </c>
+      <c r="R11" s="24">
+        <v>10</v>
+      </c>
+      <c r="S11" s="24">
+        <v>9</v>
+      </c>
+      <c r="T11" s="24">
+        <v>8</v>
+      </c>
+      <c r="U11" s="24">
+        <v>7</v>
+      </c>
+      <c r="V11" s="24">
+        <v>6</v>
+      </c>
+      <c r="W11" s="24">
+        <v>5</v>
+      </c>
+      <c r="X11" s="20">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="20">
+        <f>2^E11</f>
+        <v>8388608</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" ref="F12:AB12" si="1">2^F11</f>
+        <v>4194304</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+      <c r="L12" s="20">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+      <c r="N12" s="20">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="O12" s="20">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="P12" s="20">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="V12" s="20">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="W12" s="20">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="X12" s="20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Y12" s="20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Z12" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA12" s="20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB12" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="20">
+        <f>E12*E9</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" ref="F13:AB13" si="2">F12*F9</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="2"/>
+        <v>1048576</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="2"/>
+        <v>524288</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="20">
+        <f>SUM(E13:AB13)</f>
+        <v>1572864</v>
+      </c>
+    </row>
+    <row r="15" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="21">
+        <f>E14/2^16</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" ref="E23:W23" si="3">F23*2</f>
+        <v>131072</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="3"/>
+        <v>65536</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="3"/>
+        <v>32768</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="3"/>
+        <v>16384</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="3"/>
+        <v>8192</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="L23" s="20">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="M23" s="20">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="N23" s="20">
+        <f>O23*2</f>
+        <v>256</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="P23" s="20">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="R23" s="20">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="S23" s="20">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="20">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="X23" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="Y23" s="22">
+        <f t="shared" ref="Y23:Z23" si="4">Z23*2</f>
+        <v>0.12496</v>
+      </c>
+      <c r="Z23" s="22">
+        <f t="shared" si="4"/>
+        <v>6.2480000000000001E-2</v>
+      </c>
+      <c r="AA23" s="22">
+        <f>AB23*2</f>
+        <v>3.124E-2</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>1.562E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1</v>
+      </c>
+      <c r="I24" s="20">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
+        <v>1</v>
+      </c>
+      <c r="K24" s="20">
+        <v>0</v>
+      </c>
+      <c r="L24" s="20">
+        <v>0</v>
+      </c>
+      <c r="M24" s="20">
+        <v>0</v>
+      </c>
+      <c r="N24" s="20">
+        <v>0</v>
+      </c>
+      <c r="O24" s="20">
+        <v>0</v>
+      </c>
+      <c r="P24" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>0</v>
+      </c>
+      <c r="R24" s="20">
+        <v>0</v>
+      </c>
+      <c r="S24" s="20">
+        <v>0</v>
+      </c>
+      <c r="T24" s="20">
+        <v>0</v>
+      </c>
+      <c r="U24" s="20">
+        <v>0</v>
+      </c>
+      <c r="V24" s="20">
+        <v>0</v>
+      </c>
+      <c r="W24" s="20">
+        <v>0</v>
+      </c>
+      <c r="X24" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="20">
+        <v>24</v>
+      </c>
+      <c r="F25" s="20">
+        <v>23</v>
+      </c>
+      <c r="G25" s="20">
+        <v>22</v>
+      </c>
+      <c r="H25" s="20">
+        <v>21</v>
+      </c>
+      <c r="I25" s="20">
+        <v>20</v>
+      </c>
+      <c r="J25" s="20">
+        <v>19</v>
+      </c>
+      <c r="K25" s="20">
+        <v>18</v>
+      </c>
+      <c r="L25" s="20">
+        <v>17</v>
+      </c>
+      <c r="M25" s="20">
+        <v>16</v>
+      </c>
+      <c r="N25" s="20">
+        <v>15</v>
+      </c>
+      <c r="O25" s="20">
+        <v>14</v>
+      </c>
+      <c r="P25" s="20">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>12</v>
+      </c>
+      <c r="R25" s="20">
+        <v>11</v>
+      </c>
+      <c r="S25" s="20">
+        <v>10</v>
+      </c>
+      <c r="T25" s="20">
+        <v>9</v>
+      </c>
+      <c r="U25" s="20">
+        <v>8</v>
+      </c>
+      <c r="V25" s="20">
+        <v>7</v>
+      </c>
+      <c r="W25" s="20">
+        <v>6</v>
+      </c>
+      <c r="X25" s="20">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="24">
+        <v>23</v>
+      </c>
+      <c r="F26" s="24">
+        <v>22</v>
+      </c>
+      <c r="G26" s="24">
+        <v>21</v>
+      </c>
+      <c r="H26" s="24">
+        <v>20</v>
+      </c>
+      <c r="I26" s="24">
+        <v>19</v>
+      </c>
+      <c r="J26" s="24">
+        <v>18</v>
+      </c>
+      <c r="K26" s="24">
+        <v>17</v>
+      </c>
+      <c r="L26" s="24">
+        <v>16</v>
+      </c>
+      <c r="M26" s="24">
+        <v>15</v>
+      </c>
+      <c r="N26" s="24">
+        <v>14</v>
+      </c>
+      <c r="O26" s="24">
+        <v>13</v>
+      </c>
+      <c r="P26" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>11</v>
+      </c>
+      <c r="R26" s="24">
+        <v>10</v>
+      </c>
+      <c r="S26" s="24">
+        <v>9</v>
+      </c>
+      <c r="T26" s="24">
+        <v>8</v>
+      </c>
+      <c r="U26" s="24">
+        <v>7</v>
+      </c>
+      <c r="V26" s="24">
+        <v>6</v>
+      </c>
+      <c r="W26" s="24">
+        <v>5</v>
+      </c>
+      <c r="X26" s="20">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="20">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="20">
+        <f>2^E26</f>
+        <v>8388608</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" ref="F27:AB27" si="5">2^F26</f>
+        <v>4194304</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="5"/>
+        <v>2097152</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="5"/>
+        <v>1048576</v>
+      </c>
+      <c r="I27" s="20">
+        <f t="shared" si="5"/>
+        <v>524288</v>
+      </c>
+      <c r="J27" s="20">
+        <f t="shared" si="5"/>
+        <v>262144</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" si="5"/>
+        <v>131072</v>
+      </c>
+      <c r="L27" s="20">
+        <f t="shared" si="5"/>
+        <v>65536</v>
+      </c>
+      <c r="M27" s="20">
+        <f t="shared" si="5"/>
+        <v>32768</v>
+      </c>
+      <c r="N27" s="20">
+        <f t="shared" si="5"/>
+        <v>16384</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="5"/>
+        <v>8192</v>
+      </c>
+      <c r="P27" s="20">
+        <f t="shared" si="5"/>
+        <v>4096</v>
+      </c>
+      <c r="Q27" s="20">
+        <f t="shared" si="5"/>
+        <v>2048</v>
+      </c>
+      <c r="R27" s="20">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="S27" s="20">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="T27" s="20">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="U27" s="20">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="V27" s="20">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="W27" s="20">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="X27" s="20">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="Y27" s="20">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Z27" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AA27" s="20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB27" s="20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="20">
+        <f>E27*E24</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" ref="F28:AB28" si="6">F27*F24</f>
+        <v>4194304</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="6"/>
+        <v>2097152</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="6"/>
+        <v>1048576</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="6"/>
+        <v>262144</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="20">
+        <f>SUM(E28:AB28)</f>
+        <v>7602176</v>
+      </c>
+    </row>
+    <row r="30" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="23">
+        <f>E29/2^6</f>
+        <v>118784</v>
+      </c>
+    </row>
+    <row r="31" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20">
+        <f>E30/1000</f>
+        <v>118.78400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="20">
+        <f>24*8/64</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Arduino Code/CAN Message.xlsx
+++ b/Arduino Code/CAN Message.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pressure" sheetId="1" r:id="rId1"/>
@@ -522,6 +522,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,33 +570,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,13 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,6 +612,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857376" y="5029200"/>
+          <a:ext cx="10839450" cy="5069374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,11 +939,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -909,19 +952,20 @@
       <c r="B3" s="15">
         <v>64</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="39">
+        <f>SUM(D4:D5)</f>
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -930,46 +974,46 @@
       <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="42" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="26">
         <f>B3-B4</f>
         <v>57</v>
       </c>
       <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="26">
         <v>3</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="27" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -989,13 +1033,13 @@
       <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="31">
         <v>4</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="32">
         <v>6</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1021,11 +1065,11 @@
       <c r="F8" s="18">
         <v>7</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="26">
         <f>F8+18</f>
         <v>25</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="27" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1033,15 +1077,15 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F9" s="48">
+      <c r="F9" s="31">
         <f>G8+1</f>
         <v>26</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="30">
         <f>F9+18</f>
         <v>44</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1105,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1126,16 +1170,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
@@ -1144,19 +1188,19 @@
         <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
@@ -1440,7 +1484,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2097152</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
@@ -1468,11 +1512,11 @@
       </c>
       <c r="L19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="1"/>
@@ -1480,7 +1524,7 @@
       </c>
       <c r="O19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="1"/>
@@ -1492,23 +1536,23 @@
       </c>
       <c r="R19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="T19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W19" s="4">
         <f t="shared" si="1"/>
@@ -1533,7 +1577,7 @@
       </c>
       <c r="C20" s="4">
         <f>SUM(C19:Z19)</f>
-        <v>6264327</v>
+        <v>8388599</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1565,7 +1609,7 @@
       </c>
       <c r="C21" s="13">
         <f>C20/2^6</f>
-        <v>97880.109375</v>
+        <v>131071.859375</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -1574,17 +1618,17 @@
       </c>
       <c r="C22" s="1">
         <f>C21/1000</f>
-        <v>97.880109375000004</v>
+        <v>131.071859375</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C23" s="11">
         <f>C21*64</f>
-        <v>6264327</v>
+        <v>8388599</v>
       </c>
       <c r="D23" s="1">
         <f>C23/2^5</f>
-        <v>195760.21875</v>
+        <v>262143.71875</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -1627,7 +1671,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D27" s="32">
+      <c r="D27" s="40">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1641,7 +1685,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D28" s="32"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1663,43 +1707,43 @@
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30" t="s">
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="31"/>
+      <c r="U31" s="39"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="9">
         <v>0</v>
       </c>
@@ -1759,39 +1803,39 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30" t="s">
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="31"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="39"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="9">
         <v>5</v>
       </c>
@@ -1851,39 +1895,39 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="s">
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30" t="s">
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="31"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="39"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="9">
         <v>2</v>
       </c>
@@ -2151,10 +2195,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
@@ -2165,10 +2209,10 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +2873,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D27" s="32">
+      <c r="D27" s="40">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -2843,7 +2887,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D28" s="32"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="5" t="s">
         <v>23</v>
       </c>
@@ -2865,43 +2909,43 @@
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30" t="s">
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="31"/>
+      <c r="U31" s="39"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="9">
         <v>0</v>
       </c>
@@ -2961,39 +3005,39 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30" t="s">
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="31"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="39"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="9">
         <v>5</v>
       </c>
@@ -3053,39 +3097,39 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="s">
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30" t="s">
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="31"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="39"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="9">
         <v>2</v>
       </c>
@@ -3332,8 +3376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:AB38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4464,5 +4508,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Arduino Code/CAN Message.xlsx
+++ b/Arduino Code/CAN Message.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Pressure" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>CAN ID</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>unique messages</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,12 +549,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,39 +598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -922,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,18 +938,20 @@
     <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F2" s="46" t="s">
+      <c r="L2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -952,19 +960,19 @@
       <c r="B3" s="15">
         <v>64</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="30" t="s">
+      <c r="L3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="36">
         <f>SUM(D4:D5)</f>
         <v>7</v>
       </c>
@@ -974,30 +982,37 @@
       <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="33">
+        <f>2^D4</f>
+        <v>8</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="44" t="s">
+      <c r="M4" s="46"/>
+      <c r="N4" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="L5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="45"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
@@ -1007,16 +1022,16 @@
         <f>B3-B4</f>
         <v>57</v>
       </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
         <v>3</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="N6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1033,16 +1048,19 @@
       <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="31">
+      <c r="L7" s="31">
         <v>4</v>
       </c>
-      <c r="G7" s="32">
+      <c r="M7" s="32">
         <v>6</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="N7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1062,49 +1080,49 @@
         <f>B6/2</f>
         <v>28.5</v>
       </c>
-      <c r="F8" s="18">
+      <c r="L8" s="18">
         <v>7</v>
       </c>
-      <c r="G8" s="26">
-        <f>F8+18</f>
+      <c r="M8" s="26">
+        <f>L8+18</f>
         <v>25</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="N8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F9" s="31">
-        <f>G8+1</f>
+      <c r="L9" s="31">
+        <f>M8+1</f>
         <v>26</v>
       </c>
-      <c r="G9" s="30">
-        <f>F9+18</f>
+      <c r="M9" s="30">
+        <f>L9+18</f>
         <v>44</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="N9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F10" s="19">
-        <f>G9+1</f>
+      <c r="L10" s="19">
+        <f>M9+1</f>
         <v>45</v>
       </c>
-      <c r="G10" s="10">
-        <f>F10+18</f>
+      <c r="M10" s="10">
+        <f>L10+18</f>
         <v>63</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="N10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1215,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1353,19 +1371,19 @@
       <c r="U17" s="4">
         <v>5</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="20">
         <v>4</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="20">
         <v>3</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="20">
         <v>2</v>
       </c>
-      <c r="Y17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="4">
+      <c r="Y17" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1449,23 +1467,23 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1550,23 +1568,23 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="20">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="W19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
+      <c r="W19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1597,11 +1615,11 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -1671,7 +1689,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D27" s="40">
+      <c r="D27" s="43">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1685,7 +1703,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D28" s="40"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1707,43 +1725,43 @@
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38" t="s">
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38" t="s">
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="39"/>
+      <c r="U31" s="36"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="9">
         <v>0</v>
       </c>
@@ -1803,39 +1821,39 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38" t="s">
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="39"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="36"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="9">
         <v>5</v>
       </c>
@@ -1895,39 +1913,39 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38" t="s">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38" t="s">
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="39"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="36"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="9">
         <v>2</v>
       </c>
@@ -2148,26 +2166,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="L31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="N35:U35"/>
     <mergeCell ref="Q33:U33"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="I33:P33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="L31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2195,10 +2213,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
@@ -2209,10 +2227,10 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2873,7 +2891,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D27" s="40">
+      <c r="D27" s="43">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -2887,7 +2905,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D28" s="40"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="5" t="s">
         <v>23</v>
       </c>
@@ -2909,43 +2927,43 @@
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38" t="s">
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38" t="s">
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="39"/>
+      <c r="U31" s="36"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="9">
         <v>0</v>
       </c>
@@ -3005,39 +3023,39 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38" t="s">
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="39"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="36"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="9">
         <v>5</v>
       </c>
@@ -3097,39 +3115,39 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38" t="s">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38" t="s">
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="39"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="36"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="9">
         <v>2</v>
       </c>
@@ -3350,13 +3368,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="N35:U35"/>
-    <mergeCell ref="L31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:P33"/>
-    <mergeCell ref="Q33:U33"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D27:D28"/>
@@ -3366,6 +3377,13 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:M35"/>
+    <mergeCell ref="N35:U35"/>
+    <mergeCell ref="L31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:P33"/>
+    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3376,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D8:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
